--- a/saved_model/results/2_h.xlsx
+++ b/saved_model/results/2_h.xlsx
@@ -382,16 +382,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>25.07357017296307</v>
+        <v>-261.2623470979252</v>
       </c>
       <c r="C2">
-        <v>21.99453551912568</v>
+        <v>25.00305362159521</v>
       </c>
       <c r="D2">
-        <v>1.111475409836066</v>
+        <v>1.000977517106549</v>
       </c>
       <c r="E2">
-        <v>2928</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -399,16 +399,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19.86019970740253</v>
+        <v>-137.6682715531082</v>
       </c>
       <c r="C3">
-        <v>14.14417492312949</v>
+        <v>15.50207671634498</v>
       </c>
       <c r="D3">
-        <v>1.287292817679558</v>
+        <v>1.184165232358003</v>
       </c>
       <c r="E3">
-        <v>2927</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -416,16 +416,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>57.2717659072787</v>
+        <v>-61.28028343906858</v>
       </c>
       <c r="C4">
-        <v>15.58441558441558</v>
+        <v>16.67684789248625</v>
       </c>
       <c r="D4">
-        <v>1.044843049327354</v>
+        <v>1.20873786407767</v>
       </c>
       <c r="E4">
-        <v>2926</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -433,16 +433,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-34.70776309421429</v>
+        <v>-76.10042782040847</v>
       </c>
       <c r="C5">
-        <v>13.81196581196581</v>
+        <v>14.29618768328446</v>
       </c>
       <c r="D5">
-        <v>0.8790697674418605</v>
+        <v>1.131147540983606</v>
       </c>
       <c r="E5">
-        <v>2925</v>
+        <v>8184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -450,16 +450,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>70.3659750135709</v>
+        <v>-35.24879017105882</v>
       </c>
       <c r="C6">
-        <v>11.49110807113543</v>
+        <v>12.50152755713064</v>
       </c>
       <c r="D6">
-        <v>1.333333333333333</v>
+        <v>1.096311475409836</v>
       </c>
       <c r="E6">
-        <v>2924</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -467,16 +467,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>23.87562197313362</v>
+        <v>67.23491872163059</v>
       </c>
       <c r="C7">
-        <v>7.218611016079371</v>
+        <v>11.12197506722073</v>
       </c>
       <c r="D7">
-        <v>1.068627450980392</v>
+        <v>1.309644670050761</v>
       </c>
       <c r="E7">
-        <v>2923</v>
+        <v>8182</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -484,16 +484,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-3.823600585712168</v>
+        <v>122.701209946468</v>
       </c>
       <c r="C8">
-        <v>0.5817932922655715</v>
+        <v>9.375381982642708</v>
       </c>
       <c r="D8">
-        <v>0.7</v>
+        <v>1.229651162790698</v>
       </c>
       <c r="E8">
-        <v>2922</v>
+        <v>8181</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -501,16 +501,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10.95389926447136</v>
+        <v>105.472050336403</v>
       </c>
       <c r="C9">
-        <v>6.915439917836358</v>
+        <v>8.117359413202934</v>
       </c>
       <c r="D9">
-        <v>1.04040404040404</v>
+        <v>1.169934640522876</v>
       </c>
       <c r="E9">
-        <v>2921</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -518,16 +518,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-30.63173716856512</v>
+        <v>31.61919792766958</v>
       </c>
       <c r="C10">
-        <v>8.047945205479452</v>
+        <v>2.579777478909402</v>
       </c>
       <c r="D10">
-        <v>0.8503937007874016</v>
+        <v>1.482352941176471</v>
       </c>
       <c r="E10">
-        <v>2920</v>
+        <v>8179</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -535,16 +535,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-40.51532067163455</v>
+        <v>131.9218691300824</v>
       </c>
       <c r="C11">
-        <v>7.708119218910586</v>
+        <v>7.666911225238445</v>
       </c>
       <c r="D11">
-        <v>0.7045454545454546</v>
+        <v>1.348314606741573</v>
       </c>
       <c r="E11">
-        <v>2919</v>
+        <v>8178</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -552,16 +552,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>16.52022209068174</v>
+        <v>126.5105973613434</v>
       </c>
       <c r="C12">
-        <v>0.7882111034955449</v>
+        <v>7.154213036565977</v>
       </c>
       <c r="D12">
-        <v>1.090909090909091</v>
+        <v>1.25</v>
       </c>
       <c r="E12">
-        <v>2918</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -569,16 +569,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-42.23672464041485</v>
+        <v>13.35291063391983</v>
       </c>
       <c r="C13">
-        <v>6.513541309564622</v>
+        <v>0.3669275929549902</v>
       </c>
       <c r="D13">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>2917</v>
+        <v>8176</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -586,16 +586,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-77.07714383587606</v>
+        <v>105.2978088406124</v>
       </c>
       <c r="C14">
-        <v>6.275720164609054</v>
+        <v>6.250764525993883</v>
       </c>
       <c r="D14">
-        <v>0.8673469387755102</v>
+        <v>1.174468085106383</v>
       </c>
       <c r="E14">
-        <v>2916</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -603,16 +603,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-1.208795493495918</v>
+        <v>103.214729105769</v>
       </c>
       <c r="C15">
-        <v>5.283018867924529</v>
+        <v>0.8319060435527282</v>
       </c>
       <c r="D15">
-        <v>0.8333333333333334</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E15">
-        <v>2915</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -620,16 +620,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.258823642991285</v>
+        <v>76.88872232840116</v>
       </c>
       <c r="C16">
-        <v>1.063829787234043</v>
+        <v>3.009910681512296</v>
       </c>
       <c r="D16">
-        <v>0.8235294117647058</v>
+        <v>1.157894736842105</v>
       </c>
       <c r="E16">
-        <v>2914</v>
+        <v>8173</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -637,16 +637,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7.44777689294131</v>
+        <v>93.6499293618257</v>
       </c>
       <c r="C17">
-        <v>0.2403020940611054</v>
+        <v>4.221732745961821</v>
       </c>
       <c r="D17">
-        <v>0.4</v>
+        <v>1.24025974025974</v>
       </c>
       <c r="E17">
-        <v>2913</v>
+        <v>8172</v>
       </c>
     </row>
   </sheetData>
